--- a/Formato de pagos/Davivienda/Davivienda 01-12-2020.xlsx
+++ b/Formato de pagos/Davivienda/Davivienda 01-12-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Diana\Formato de pagos\Davivienda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Forero\Desktop\pago-proveedores\Formato de pagos\Davivienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FEE566-E932-4453-9202-557D6605658C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84337DDA-0504-442B-8481-B336D4307BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1815" windowWidth="29040" windowHeight="16440" xr2:uid="{AE94D721-F2ED-45B2-94EF-53C41DAB4713}"/>
+    <workbookView xWindow="-28920" yWindow="-1815" windowWidth="29040" windowHeight="16440" xr2:uid="{C3097D49-B9BD-479A-9B34-2072FB3C7AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t xml:space="preserve"> Tipo de Identificacion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Tipo de Identificacion</t>
   </si>
   <si>
     <t>Numero de Identificacion</t>
@@ -56,62 +56,90 @@
     <t>Numero del Producto o Servicio</t>
   </si>
   <si>
-    <t>valor del pago</t>
-  </si>
-  <si>
-    <t>BIBO SOLUTIONS</t>
+    <t xml:space="preserve">valor del pago </t>
+  </si>
+  <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>BIBO</t>
+  </si>
+  <si>
+    <t>SOLUTIONS SAS</t>
+  </si>
+  <si>
+    <t>CIMAZ</t>
+  </si>
+  <si>
+    <t>S.A.S</t>
+  </si>
+  <si>
+    <t>CIMPRE</t>
+  </si>
+  <si>
+    <t>SALUD OCUPACIONAL S.A.S.</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>CARINA IMPATA RESTREPO</t>
+  </si>
+  <si>
+    <t>DIGITALTIC</t>
   </si>
   <si>
     <t>SAS</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>83645289326</t>
-  </si>
-  <si>
-    <t>CIMAZ S.A.S</t>
-  </si>
-  <si>
-    <t>CIMPRE</t>
-  </si>
-  <si>
-    <t>SALUD OCUPACIONAL S.A.S.</t>
-  </si>
-  <si>
-    <t>IMPATA RESTREPO DIANA CARINA</t>
-  </si>
-  <si>
-    <t>DIGITALTIC SAS</t>
-  </si>
-  <si>
-    <t>DOMINGO IGNACIO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>24003323467</t>
-  </si>
-  <si>
-    <t>ELECTRICOS DEL VALLE SA</t>
-  </si>
-  <si>
-    <t>ELECTRO JAPONESA S.A.</t>
-  </si>
-  <si>
-    <t>GVS COLOMBIA SAS</t>
-  </si>
-  <si>
-    <t>Hp Financial Services Colombia LLC Sucursal Colombia</t>
+    <t>DOMINGO</t>
+  </si>
+  <si>
+    <t>IGNACIO ROJAS</t>
+  </si>
+  <si>
+    <t>ELECTRICOS</t>
+  </si>
+  <si>
+    <t>DEL VALLE SA</t>
+  </si>
+  <si>
+    <t>ELECTRO</t>
+  </si>
+  <si>
+    <t>JAPONESA S.A.</t>
+  </si>
+  <si>
+    <t>GVS</t>
+  </si>
+  <si>
+    <t>COLOMBIA SAS</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Financial Services Colombia LLC Sucursal Colombia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,9 +150,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -136,7 +172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF595959"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,25 +186,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,53 +536,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC84757-951F-4A98-8285-C8D11062883A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BF8826-2BEC-4EF1-A3D3-9DF13963F787}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -534,175 +597,545 @@
         <v>9008585507</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8">
         <v>2359386</v>
       </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>9006541001</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1">
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4554</v>
+      </c>
+      <c r="F3" s="10">
+        <v>65456</v>
+      </c>
+      <c r="G3" s="9">
+        <v>56456</v>
+      </c>
+      <c r="H3" s="2">
         <v>525870</v>
       </c>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>11439407232</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45665</v>
-      </c>
-      <c r="G4" s="2">
-        <v>54654</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>64564</v>
+      </c>
+      <c r="F4" s="2">
+        <v>56456</v>
+      </c>
+      <c r="G4" s="3">
+        <v>456456</v>
+      </c>
+      <c r="H4" s="2">
         <v>87451</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>313225101</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>456456</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4564556</v>
+      </c>
+      <c r="G5" s="3">
+        <v>456456</v>
+      </c>
+      <c r="H5" s="2">
         <v>84300</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>9012231566</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>56456456</v>
+      </c>
+      <c r="F6" s="2">
+        <v>546456</v>
+      </c>
+      <c r="G6" s="3">
+        <v>456456</v>
+      </c>
+      <c r="H6" s="2">
         <v>193970</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>72156499</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <v>456456</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45646</v>
+      </c>
+      <c r="G7" s="3">
+        <v>456456</v>
+      </c>
+      <c r="H7" s="2">
         <v>97991</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>8903043450</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
+        <v>456456</v>
+      </c>
+      <c r="F8" s="2">
+        <v>456456</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6456456</v>
+      </c>
+      <c r="H8" s="2">
         <v>172500</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>8903063729</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
+        <v>56456</v>
+      </c>
+      <c r="F9" s="2">
+        <v>456456</v>
+      </c>
+      <c r="G9" s="3">
+        <v>56456</v>
+      </c>
+      <c r="H9" s="2">
         <v>1819546</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>9002980749</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
+        <v>56456</v>
+      </c>
+      <c r="F10" s="2">
+        <v>456456</v>
+      </c>
+      <c r="G10" s="3">
+        <v>456456</v>
+      </c>
+      <c r="H10" s="2">
         <v>9952604</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>8300768827</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2">
+        <v>56456</v>
+      </c>
+      <c r="F11" s="2">
+        <v>564564</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45645645</v>
+      </c>
+      <c r="H11" s="2">
         <v>4407849</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002B6B606D19F8C64C9C79835747E2E002" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1490ca6afe76db67316394b374b3fffa">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a52c2c93-1616-4696-bc88-4a2586572708" xmlns:ns4="44ef142f-35ce-48df-bc44-191ee5827fd0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f03ce17d5f7f795edd6d7d0ee76cdef5" ns3:_="" ns4:_="">
+    <xsd:import namespace="a52c2c93-1616-4696-bc88-4a2586572708"/>
+    <xsd:import namespace="44ef142f-35ce-48df-bc44-191ee5827fd0"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a52c2c93-1616-4696-bc88-4a2586572708" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="44ef142f-35ce-48df-bc44-191ee5827fd0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="16" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81440486-7E61-4C1D-9E79-E88DFF00A3EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a52c2c93-1616-4696-bc88-4a2586572708"/>
+    <ds:schemaRef ds:uri="44ef142f-35ce-48df-bc44-191ee5827fd0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E16F970-B83E-488E-908F-EC4C41A638AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67EF9E55-50B9-42EC-BEA4-E4B7D8C9FDC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="44ef142f-35ce-48df-bc44-191ee5827fd0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a52c2c93-1616-4696-bc88-4a2586572708"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>